--- a/tagging/data_raw/MiniPAT_26354_CSC.xlsx
+++ b/tagging/data_raw/MiniPAT_26354_CSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadziobervoets/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35465230-57C9-EC4A-90F9-3A3195EA318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE18383-8828-7542-B385-9FD0731E9D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA26354MINIPAT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
   <si>
     <t>PTTID</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>MinD</t>
+  </si>
+  <si>
+    <t>MaxD</t>
   </si>
 </sst>
 </file>
@@ -432,9 +438,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -741,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,7 +766,7 @@
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -791,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -808,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -825,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -842,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -859,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -876,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -893,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -910,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -927,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +955,14 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -966,8 +981,14 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -986,8 +1007,14 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1.6</v>
+      </c>
+      <c r="H14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1006,8 +1033,14 @@
       <c r="F15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>3.2</v>
+      </c>
+      <c r="H15">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1026,8 +1059,14 @@
       <c r="F16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>7.2</v>
+      </c>
+      <c r="H16">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1046,8 +1085,14 @@
       <c r="F17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>9.6</v>
+      </c>
+      <c r="H17">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1066,8 +1111,14 @@
       <c r="F18">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>38.4</v>
+      </c>
+      <c r="H18">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1086,8 +1137,14 @@
       <c r="F19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>52.8</v>
+      </c>
+      <c r="H19">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1106,8 +1163,14 @@
       <c r="F20">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>80.8</v>
+      </c>
+      <c r="H20">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1126,8 +1189,14 @@
       <c r="F21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>5.6</v>
+      </c>
+      <c r="H21">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1215,14 @@
       <c r="F22">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>21.6</v>
+      </c>
+      <c r="H22">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1166,8 +1241,14 @@
       <c r="F23">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>41.6</v>
+      </c>
+      <c r="H23">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1186,8 +1267,14 @@
       <c r="F24">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>71.2</v>
+      </c>
+      <c r="H24">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1206,8 +1293,14 @@
       <c r="F25">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>92</v>
+      </c>
+      <c r="H25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1319,14 @@
       <c r="F26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>24.8</v>
+      </c>
+      <c r="H26">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1246,8 +1345,14 @@
       <c r="F27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>14.4</v>
+      </c>
+      <c r="H27">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1266,8 +1371,14 @@
       <c r="F28">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>59.2</v>
+      </c>
+      <c r="H28">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1286,8 +1397,14 @@
       <c r="F29">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>113.6</v>
+      </c>
+      <c r="H29">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1306,8 +1423,14 @@
       <c r="F30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H30">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1326,8 +1449,14 @@
       <c r="F31">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>50.4</v>
+      </c>
+      <c r="H31">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1346,8 +1475,14 @@
       <c r="F32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>13.6</v>
+      </c>
+      <c r="H32">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1366,8 +1501,14 @@
       <c r="F33">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>27.2</v>
+      </c>
+      <c r="H33">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1386,8 +1527,14 @@
       <c r="F34">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>41.6</v>
+      </c>
+      <c r="H34">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1406,8 +1553,14 @@
       <c r="F35">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>62.4</v>
+      </c>
+      <c r="H35">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1426,8 +1579,14 @@
       <c r="F36">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>83.2</v>
+      </c>
+      <c r="H36">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1446,8 +1605,14 @@
       <c r="F37">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>112.8</v>
+      </c>
+      <c r="H37">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1466,8 +1631,14 @@
       <c r="F38">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>14.4</v>
+      </c>
+      <c r="H38">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1486,8 +1657,14 @@
       <c r="F39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>4.8</v>
+      </c>
+      <c r="H39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1506,8 +1683,14 @@
       <c r="F40">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>88.8</v>
+      </c>
+      <c r="H40">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1526,8 +1709,14 @@
       <c r="F41">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>36</v>
+      </c>
+      <c r="H41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1546,8 +1735,14 @@
       <c r="F42">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>107.2</v>
+      </c>
+      <c r="H42">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1566,8 +1761,14 @@
       <c r="F43">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>47.2</v>
+      </c>
+      <c r="H43">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1586,8 +1787,14 @@
       <c r="F44">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H44">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1606,8 +1813,14 @@
       <c r="F45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H45">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1626,8 +1839,14 @@
       <c r="F46">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>53.6</v>
+      </c>
+      <c r="H46">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1646,8 +1865,14 @@
       <c r="F47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>11.2</v>
+      </c>
+      <c r="H47">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1666,8 +1891,14 @@
       <c r="F48">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>28.8</v>
+      </c>
+      <c r="H48">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1686,8 +1917,14 @@
       <c r="F49">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>49.6</v>
+      </c>
+      <c r="H49">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1706,8 +1943,14 @@
       <c r="F50">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>82.4</v>
+      </c>
+      <c r="H50">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1726,8 +1969,14 @@
       <c r="F51">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>114.4</v>
+      </c>
+      <c r="H51">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1746,8 +1995,14 @@
       <c r="F52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H52">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1766,8 +2021,14 @@
       <c r="F53">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>61.6</v>
+      </c>
+      <c r="H53">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1786,8 +2047,14 @@
       <c r="F54">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>43.2</v>
+      </c>
+      <c r="H54">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1806,8 +2073,14 @@
       <c r="F55">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>72.8</v>
+      </c>
+      <c r="H55">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1826,8 +2099,14 @@
       <c r="F56">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>97.6</v>
+      </c>
+      <c r="H56">
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1846,8 +2125,14 @@
       <c r="F57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>14.4</v>
+      </c>
+      <c r="H57">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1866,8 +2151,14 @@
       <c r="F58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>5.6</v>
+      </c>
+      <c r="H58">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1886,8 +2177,14 @@
       <c r="F59">
         <v>134</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>107.2</v>
+      </c>
+      <c r="H59">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1906,8 +2203,14 @@
       <c r="F60">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>34.4</v>
+      </c>
+      <c r="H60">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1926,8 +2229,14 @@
       <c r="F61">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>50.4</v>
+      </c>
+      <c r="H61">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1946,8 +2255,14 @@
       <c r="F62">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>15.2</v>
+      </c>
+      <c r="H62">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1966,8 +2281,14 @@
       <c r="F63">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H63">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1986,8 +2307,14 @@
       <c r="F64">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>57.6</v>
+      </c>
+      <c r="H64">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2006,8 +2333,14 @@
       <c r="F65">
         <v>101</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>80.8</v>
+      </c>
+      <c r="H65">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2026,8 +2359,14 @@
       <c r="F66">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>115.2</v>
+      </c>
+      <c r="H66">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2046,8 +2385,14 @@
       <c r="F67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>6.4</v>
+      </c>
+      <c r="H67">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2066,8 +2411,14 @@
       <c r="F68">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>46.4</v>
+      </c>
+      <c r="H68">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2086,8 +2437,14 @@
       <c r="F69">
         <v>132</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>105.6</v>
+      </c>
+      <c r="H69">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2106,8 +2463,14 @@
       <c r="F70">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="H70">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2126,8 +2489,14 @@
       <c r="F71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H71">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2146,8 +2515,14 @@
       <c r="F72">
         <v>43</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>34.4</v>
+      </c>
+      <c r="H72">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2166,8 +2541,14 @@
       <c r="F73">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>54.4</v>
+      </c>
+      <c r="H73">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2186,8 +2567,14 @@
       <c r="F74">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>89.6</v>
+      </c>
+      <c r="H74">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2206,8 +2593,14 @@
       <c r="F75">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>21.6</v>
+      </c>
+      <c r="H75">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2226,8 +2619,14 @@
       <c r="F76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>4.8</v>
+      </c>
+      <c r="H76">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2645,14 @@
       <c r="F77">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>16.8</v>
+      </c>
+      <c r="H77">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2266,8 +2671,14 @@
       <c r="F78">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H78">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2286,8 +2697,14 @@
       <c r="F79">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>59.2</v>
+      </c>
+      <c r="H79">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2306,8 +2723,14 @@
       <c r="F80">
         <v>118</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>94.4</v>
+      </c>
+      <c r="H80">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2326,8 +2749,14 @@
       <c r="F81">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>105.6</v>
+      </c>
+      <c r="H81">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2346,8 +2775,14 @@
       <c r="F82">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>12.8</v>
+      </c>
+      <c r="H82">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2366,8 +2801,14 @@
       <c r="F83">
         <v>43</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>34.4</v>
+      </c>
+      <c r="H83">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2386,8 +2827,14 @@
       <c r="F84">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>123.2</v>
+      </c>
+      <c r="H84">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2406,8 +2853,14 @@
       <c r="F85">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>76.8</v>
+      </c>
+      <c r="H85">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2426,8 +2879,14 @@
       <c r="F86">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>61.6</v>
+      </c>
+      <c r="H86">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2905,14 @@
       <c r="F87">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>43.2</v>
+      </c>
+      <c r="H87">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2466,8 +2931,14 @@
       <c r="F88">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>23.2</v>
+      </c>
+      <c r="H88">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2486,8 +2957,14 @@
       <c r="F89">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>9.6</v>
+      </c>
+      <c r="H89">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2506,8 +2983,14 @@
       <c r="F90">
         <v>144</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>115.2</v>
+      </c>
+      <c r="H90">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2526,8 +3009,14 @@
       <c r="F91">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>26.4</v>
+      </c>
+      <c r="H91">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2546,8 +3035,14 @@
       <c r="F92">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>11.2</v>
+      </c>
+      <c r="H92">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2566,8 +3061,14 @@
       <c r="F93">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>30.4</v>
+      </c>
+      <c r="H93">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2586,8 +3087,14 @@
       <c r="F94">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>56.8</v>
+      </c>
+      <c r="H94">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2606,8 +3113,14 @@
       <c r="F95">
         <v>103</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>82.4</v>
+      </c>
+      <c r="H95">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2626,8 +3139,14 @@
       <c r="F96">
         <v>147</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>117.6</v>
+      </c>
+      <c r="H96">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2646,8 +3165,14 @@
       <c r="F97">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>7.2</v>
+      </c>
+      <c r="H97">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2666,8 +3191,14 @@
       <c r="F98">
         <v>55</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>44</v>
+      </c>
+      <c r="H98">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2686,8 +3217,14 @@
       <c r="F99">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>71.2</v>
+      </c>
+      <c r="H99">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2706,8 +3243,14 @@
       <c r="F100">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>96.8</v>
+      </c>
+      <c r="H100">
+        <v>145.19999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2726,8 +3269,14 @@
       <c r="F101">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>13.6</v>
+      </c>
+      <c r="H101">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2746,8 +3295,14 @@
       <c r="F102">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>31.2</v>
+      </c>
+      <c r="H102">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2766,8 +3321,14 @@
       <c r="F103">
         <v>72</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>57.6</v>
+      </c>
+      <c r="H103">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2786,8 +3347,14 @@
       <c r="F104">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H104">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2806,8 +3373,14 @@
       <c r="F105">
         <v>140</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>112</v>
+      </c>
+      <c r="H105">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2826,8 +3399,14 @@
       <c r="F106">
         <v>63</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>50.4</v>
+      </c>
+      <c r="H106">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2846,8 +3425,14 @@
       <c r="F107">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>14.4</v>
+      </c>
+      <c r="H107">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2866,8 +3451,14 @@
       <c r="F108">
         <v>48</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>38.4</v>
+      </c>
+      <c r="H108">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2886,8 +3477,14 @@
       <c r="F109">
         <v>76</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>60.8</v>
+      </c>
+      <c r="H109">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2906,8 +3503,14 @@
       <c r="F110">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>90.4</v>
+      </c>
+      <c r="H110">
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2926,8 +3529,14 @@
       <c r="F111">
         <v>156</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>124.8</v>
+      </c>
+      <c r="H111">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2946,8 +3555,14 @@
       <c r="F112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>7.2</v>
+      </c>
+      <c r="H112">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2966,8 +3581,14 @@
       <c r="F113">
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>43.2</v>
+      </c>
+      <c r="H113">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3607,14 @@
       <c r="F114">
         <v>88</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H114">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3006,8 +3633,14 @@
       <c r="F115">
         <v>142</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>113.6</v>
+      </c>
+      <c r="H115">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3026,8 +3659,14 @@
       <c r="F116">
         <v>121</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>96.8</v>
+      </c>
+      <c r="H116">
+        <v>145.19999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3046,8 +3685,14 @@
       <c r="F117">
         <v>67</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>53.6</v>
+      </c>
+      <c r="H117">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3066,8 +3711,14 @@
       <c r="F118">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>26.4</v>
+      </c>
+      <c r="H118">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3086,8 +3737,14 @@
       <c r="F119">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>11.2</v>
+      </c>
+      <c r="H119">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3106,8 +3763,14 @@
       <c r="F120">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>6.4</v>
+      </c>
+      <c r="H120">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3126,8 +3789,14 @@
       <c r="F121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3146,8 +3815,14 @@
       <c r="F122">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>16.8</v>
+      </c>
+      <c r="H122">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3166,8 +3841,14 @@
       <c r="F123">
         <v>43</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>34.4</v>
+      </c>
+      <c r="H123">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3186,8 +3867,14 @@
       <c r="F124">
         <v>77</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>61.6</v>
+      </c>
+      <c r="H124">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3206,8 +3893,14 @@
       <c r="F125">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H125">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3226,8 +3919,14 @@
       <c r="F126">
         <v>55</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>44</v>
+      </c>
+      <c r="H126">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3246,8 +3945,14 @@
       <c r="F127">
         <v>93</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H127">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3266,8 +3971,14 @@
       <c r="F128">
         <v>118</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>94.4</v>
+      </c>
+      <c r="H128">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3286,8 +3997,14 @@
       <c r="F129">
         <v>164</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="H129">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3306,8 +4023,14 @@
       <c r="F130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0.8</v>
+      </c>
+      <c r="H130">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3326,8 +4049,14 @@
       <c r="F131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>1.6</v>
+      </c>
+      <c r="H131">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3346,8 +4075,14 @@
       <c r="F132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>1.6</v>
+      </c>
+      <c r="H132">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3366,8 +4101,14 @@
       <c r="F133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>2.4</v>
+      </c>
+      <c r="H133">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3386,8 +4127,14 @@
       <c r="F134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>3.2</v>
+      </c>
+      <c r="H134">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3406,8 +4153,14 @@
       <c r="F135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>4</v>
+      </c>
+      <c r="H135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3425,6 +4178,12 @@
       </c>
       <c r="F136">
         <v>7</v>
+      </c>
+      <c r="G136">
+        <v>5.6</v>
+      </c>
+      <c r="H136">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
